--- a/excel/Описание_работ/8/История/KS.xlsx
+++ b/excel/Описание_работ/8/История/KS.xlsx
@@ -78,9 +78,6 @@
     <t>Правление Петра III. Манифест о вольности дворянской. Переворот 1762 г.</t>
   </si>
   <si>
-    <t>1.3.</t>
-  </si>
-  <si>
     <t>Правление Екатерины II и Павла I</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Преобразования Петра I в области культуры. Укрепление светских начал в культуре. Влияние западноевропейской культуры на Россию. Привлечение иностранных специалистов. Введение нового летоисчисления, гражданского шрифта. Первая печатная газета «Ведомости». Создание специальных учебных заведений. Развитие науки. Учреждение Академии наук в Петербурге. Кунсткамера. Светская живопись. Скульптура и архитектура. Памятники раннего барокко. Повседневная жизнь и быт правящей элиты и основной массы населения</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -648,15 +648,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -712,130 +712,130 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
